--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olya\my_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +130,25 @@
     </font>
     <font>
       <b/>
+      <sz val="26"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -139,19 +156,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -331,269 +339,269 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,56 +896,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -950,403 +958,403 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="20" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="44" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="50" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="53" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="59" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="62" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="68" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="70"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="65" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="65" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="23" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="8" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="35" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="38" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="41" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="95"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1505,6 +1513,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:N5"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="H22:N22"/>
@@ -1521,13 +1536,6 @@
     <mergeCell ref="A6:G21"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:N5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
